--- a/medicine/Enfance/Betsy_Byars/Betsy_Byars.xlsx
+++ b/medicine/Enfance/Betsy_Byars/Betsy_Byars.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Betsy Byars, née Betsy Cromer le 7 août 1928 à Charlotte en Caroline du Nord et morte le 26 février 2020 à Seneca (Caroline du Sud)[1], est une femme de lettres américaine, auteur de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Betsy Byars, née Betsy Cromer le 7 août 1928 à Charlotte en Caroline du Nord et morte le 26 février 2020 à Seneca (Caroline du Sud), est une femme de lettres américaine, auteur de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle épouse Edward Byars en 1950. Installés dans l'Illinois, elle et son mari sont des passionnés de vol à voile.
 Elle commence à écrire après la naissance de ses quatre enfants. Son premier roman est publié en 1962. Elle poursuit depuis une carrière prolifique d'auteur pour la jeunesse, couronnée par des prix importants, dont le National Book Award en 1982.
@@ -545,23 +559,150 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages de littérature d'enfance et de jeunesse
-Série Golly Sisters
-The Golly Sisters Go West (1985)
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Golly Sisters</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Golly Sisters Go West (1985)
 Hooray for the Golly Sisters (1990)
-The Golly Sisters Ride Again (1994)
-Série Blossom Family
+The Golly Sisters Ride Again (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Blossom Family</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Not-Just-Anybody Family (1986)
 The Blossoms Meet the Vulture Lady (1986)
 The Blossoms and the Green Phantom (1987)
 A Blossom Promise (1987)
 Wanted...Mud Blossom (1991)
-Série Bingo Brown
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Bingo Brown</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Burning Questions of Bingo Brown (1988)
 Bingo Brown and the Language of Love (1991)
 Bingo Brown, Gypsy Lover (1992)
 Bingo Brown's Guide to Romance (1992)
-Série Herculeah Jones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Herculeah Jones</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Dark Stairs (1994)
 Tarot Says Beware (1995)
 Dead Letter (1996)
@@ -569,10 +710,88 @@
 Disappearing Acts (1998)
 King of Murder (2006)
 The Black Tower (2006)
-Série Ant
-My Brother, Ant (1996)
-Ant Plays Bear (1997)
-Autres ouvrages
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Ant</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>My Brother, Ant (1996)
+Ant Plays Bear (1997)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Clementine (1962)
 The Dancing Camel (1965)
 Rama, the Gypsy Cat (1966)
@@ -606,41 +825,116 @@
 Keeper of the Doves (2002)
 Top Teen Stories (2004), ouvrage écrit en collaboration
 Boo's Dinosaur (2006)
-Ouvrages écrits en collaboration avec ses filles Betsy Duffey et Laurie Myers
-My Dog, My Hero (2000)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ouvrages écrits en collaboration avec ses filles Betsy Duffey et Laurie Myers</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>My Dog, My Hero (2000)
 The SOS File (2004)
 Dog Diaries (2007)
-Cat Diaries (2010)
-Mémoires
-The Moon and I (1991).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Betsy_Byars</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Betsy_Byars</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Cat Diaries (2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mémoires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Moon and I (1991).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Byars</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Médaille Newbery pour Rude journée pour Sara ! (Summer of the Swans) en 1971
 Prix Sobrier-Arnould de l’Académie française pour Le secret de l’oiseau blessé (The House of Wings) en 1979
